--- a/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
@@ -1,74 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA03DD9-B3DC-4DC4-A5D5-72391CBD04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22980" windowHeight="9525"/>
+    <workbookView xWindow="2280" yWindow="4065" windowWidth="23535" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="3" r:id="rId1"/>
+    <sheet name="Tank" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional, reset number of fish in this group</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional: Name of new container that group is in</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional Y/N value, if yes, group will be made invalid and removed from container.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Container Name:</t>
   </si>
@@ -98,12 +50,30 @@
   </si>
   <si>
     <t>Remove Group</t>
+  </si>
+  <si>
+    <t>End Group</t>
+  </si>
+  <si>
+    <t>Optional. Set the number of fish in this group, on date of the event.</t>
+  </si>
+  <si>
+    <t>Optional. Tank name of the container this group should be in. If there is already an equivalent group in that tank, they will be merged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional. Was this group created by mistake? (Y/N) </t>
+  </si>
+  <si>
+    <t>Pre filled column, do not change</t>
+  </si>
+  <si>
+    <t>Optional. Was this a legitimate group that no longer exists? (Y/N)  Eg. Group was distributed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,8 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -434,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -574,6 +544,34 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -623,11 +621,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -762,6 +770,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -797,6 +822,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,11 +1029,12 @@
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,10 +1067,47 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA03DD9-B3DC-4DC4-A5D5-72391CBD04A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A105F-6B23-472A-BB21-73D8DF164706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="4065" windowWidth="23535" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
+    <sheet name="Trough" sheetId="5" r:id="rId2"/>
+    <sheet name="Drawer" sheetId="6" r:id="rId3"/>
+    <sheet name="Cup" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
   <si>
     <t>Container Name:</t>
   </si>
   <si>
-    <t>Taged Fish in Container</t>
-  </si>
-  <si>
     <t>Current Values</t>
   </si>
   <si>
@@ -40,9 +40,6 @@
     <t>Group ID</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Group Count </t>
   </si>
   <si>
@@ -68,6 +65,15 @@
   </si>
   <si>
     <t>Optional. Was this a legitimate group that no longer exists? (Y/N)  Eg. Group was distributed.</t>
+  </si>
+  <si>
+    <t>Individuals or group</t>
+  </si>
+  <si>
+    <t>Stock details</t>
+  </si>
+  <si>
+    <t>ContainerLink</t>
   </si>
 </sst>
 </file>
@@ -1015,96 +1021,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
+      <c r="P3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91D2664-AD29-4FE2-98AA-49CA0FFB3376}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53552D-87D5-41CF-A0A8-BCDD8A4733A2}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771E0BB-1487-485A-9772-E0FCFAE76358}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac_calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A105F-6B23-472A-BB21-73D8DF164706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90B7B8-8799-4CE4-AB47-2B20C809CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
   <si>
     <t>Container Name:</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Optional. Set the number of fish in this group, on date of the event.</t>
   </si>
   <si>
-    <t>Optional. Tank name of the container this group should be in. If there is already an equivalent group in that tank, they will be merged.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optional. Was this group created by mistake? (Y/N) </t>
   </si>
   <si>
@@ -74,6 +71,18 @@
   </si>
   <si>
     <t>ContainerLink</t>
+  </si>
+  <si>
+    <t>Optional. Tank name of the container this group should be in. If there is already an equivalent group in that tank, they will be merged. E.g. LP1</t>
+  </si>
+  <si>
+    <t>Optional. Trough name of the container this group should be in. If there is already an equivalent group in that trough, they will be merged. E.g. TR1</t>
+  </si>
+  <si>
+    <t>Optional. Drawer name of the container this group should be in. If there is already an equivalent group in that Drawer, they will be merged. E.g. HU1.2</t>
+  </si>
+  <si>
+    <t>Optional. Cup name of the container this group should be in. If there is already an equivalent group in that cup, they will be merged. E.g. HU1.2.3</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1083,34 +1092,34 @@
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1130,7 +1139,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,16 +1169,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1189,34 +1198,34 @@
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1236,7 +1245,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1295,34 +1304,34 @@
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -1341,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771E0BB-1487-485A-9772-E0FCFAE76358}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -1399,36 +1408,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
